--- a/Ganadería/17.21.xlsx
+++ b/Ganadería/17.21.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Ganadería\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FB18F6-31B9-4C36-8C13-0383BA25284A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A22926-1689-4822-8006-D02259174779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="15375" windowHeight="7875" xr2:uid="{89A23BD0-3146-46A4-9135-22970208F1B7}"/>
+    <workbookView xWindow="-23148" yWindow="-2160" windowWidth="23256" windowHeight="12576" xr2:uid="{89A23BD0-3146-46A4-9135-22970208F1B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla1 (3)" sheetId="17" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="18" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">'Tabla1 (3)'!$A$1:$E$56</definedName>
+    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">'Tabla1 (3)'!$B$1:$G$56</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="76">
   <si>
     <t>Valparaíso</t>
   </si>
@@ -286,6 +286,12 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>Cod_Region</t>
+  </si>
+  <si>
+    <t>Cod_Prov</t>
   </si>
 </sst>
 </file>
@@ -329,12 +335,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -372,9 +384,11 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_1" connectionId="3" xr16:uid="{C10E0282-D804-46B8-8614-5EFCB5129FB1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="11" unboundColumnsRight="5">
-    <queryTableFields count="10">
+  <queryTableRefresh nextId="13" unboundColumnsLeft="1" unboundColumnsRight="5">
+    <queryTableFields count="12">
+      <queryTableField id="11" dataBound="0" tableColumnId="11"/>
       <queryTableField id="1" name="Región" tableColumnId="1"/>
+      <queryTableField id="12" dataBound="0" tableColumnId="12"/>
       <queryTableField id="2" name="Provincia" tableColumnId="2"/>
       <queryTableField id="3" name="Año" tableColumnId="3"/>
       <queryTableField id="4" name="Atributo" tableColumnId="4"/>
@@ -390,19 +404,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4A088BAD-401A-4E7A-8ED6-00C6504FDB64}" name="Distribución_explotación_lechería" displayName="Distribución_explotación_lechería" ref="A1:J56" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:J56" xr:uid="{17D745F9-2C17-4423-BE53-1792E2773C66}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{57D2E26A-65D9-4A9C-A9CA-03C27C103E01}" uniqueName="1" name="Región" queryTableFieldId="1" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{9D349DDD-0BB4-42BB-A213-F0909A438C63}" uniqueName="2" name="Provincia" queryTableFieldId="2" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4A088BAD-401A-4E7A-8ED6-00C6504FDB64}" name="Distribución_explotación_lechería" displayName="Distribución_explotación_lechería" ref="A1:L56" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:L56" xr:uid="{17D745F9-2C17-4423-BE53-1792E2773C66}"/>
+  <tableColumns count="12">
+    <tableColumn id="11" xr3:uid="{E6C4938A-F0A7-461A-8CF5-E4B8BC136CD9}" uniqueName="11" name="Cod_Region" queryTableFieldId="11" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{57D2E26A-65D9-4A9C-A9CA-03C27C103E01}" uniqueName="1" name="Región" queryTableFieldId="1" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{29E6854B-1BC8-48EF-8F57-692FF550050E}" uniqueName="12" name="Cod_Prov" queryTableFieldId="12" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{9D349DDD-0BB4-42BB-A213-F0909A438C63}" uniqueName="2" name="Provincia" queryTableFieldId="2" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{CD0C1491-32A1-4B16-837F-81A5AD753811}" uniqueName="3" name="Año" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{4122704D-93AB-4B8A-B5E0-4D8D9467126B}" uniqueName="4" name="Tipo de lechería" queryTableFieldId="4" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{4122704D-93AB-4B8A-B5E0-4D8D9467126B}" uniqueName="4" name="Tipo de lechería" queryTableFieldId="4" dataDxfId="8"/>
     <tableColumn id="5" xr3:uid="{E116778A-CB32-48CE-AE26-4456028D721B}" uniqueName="5" name="Número de explotaciones (%)" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{D496B6D1-690D-45CE-8D63-FEAA34634A08}" uniqueName="6" name="Id_categoría" queryTableFieldId="6" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{141C12B5-F818-444E-911F-7D027748C58B}" uniqueName="7" name="Categoría" queryTableFieldId="7" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{AC4A6BF4-5795-4604-B845-9BD302E025E0}" uniqueName="8" name="Id_producto" queryTableFieldId="8" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{44DD63FD-1C33-4241-9825-48FD0C3FA0F6}" uniqueName="9" name="Producto" queryTableFieldId="9" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{323532B6-0D54-49A8-86C0-5BA53D45F9E0}" uniqueName="10" name="Definición" queryTableFieldId="10" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{D496B6D1-690D-45CE-8D63-FEAA34634A08}" uniqueName="6" name="Id_categoría" queryTableFieldId="6" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{141C12B5-F818-444E-911F-7D027748C58B}" uniqueName="7" name="Categoría" queryTableFieldId="7" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{AC4A6BF4-5795-4604-B845-9BD302E025E0}" uniqueName="8" name="Id_producto" queryTableFieldId="8" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{44DD63FD-1C33-4241-9825-48FD0C3FA0F6}" uniqueName="9" name="Producto" queryTableFieldId="9" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{323532B6-0D54-49A8-86C0-5BA53D45F9E0}" uniqueName="10" name="Definición" queryTableFieldId="10" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -422,7 +438,7 @@
     <tableColumn id="8" xr3:uid="{B40FCE8F-F342-4A77-99D7-C2B66F58E67F}" name="ISO país"/>
     <tableColumn id="9" xr3:uid="{B57222AA-E859-4E4D-90B8-5839F2E06088}" name="Nivel administrativo"/>
     <tableColumn id="10" xr3:uid="{E9C16C17-6BFF-43C7-B703-92C5F61D6809}" name="Descripción larga"/>
-    <tableColumn id="11" xr3:uid="{4C3AB0C8-D4A8-4FFD-9609-5107FED919B9}" name="Fecha" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{4C3AB0C8-D4A8-4FFD-9609-5107FED919B9}" name="Fecha" dataDxfId="2"/>
     <tableColumn id="12" xr3:uid="{A2D5C58B-E203-4BC4-A462-BB91DDED6B04}" name="Unidad"/>
     <tableColumn id="13" xr3:uid="{2BB2FF50-F7F9-4E0D-B8BA-FF1A963DF4F4}" name="Responsable"/>
   </tableColumns>
@@ -727,1810 +743,2146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07386016-FDDC-47CC-B792-DF4E8575A8E3}">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>43</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>44</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>2019</v>
+      <c r="C2" s="1">
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2019</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>100</v>
       </c>
-      <c r="F2">
-        <v>100401</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
       <c r="H2">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2">
+        <v>100401004</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2019</v>
+      <c r="C3" s="1">
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2019</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>100</v>
       </c>
-      <c r="F3">
-        <v>100401</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
       <c r="H3">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3">
+        <v>100401004</v>
+      </c>
+      <c r="K3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1">
+        <v>55</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>2019</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4">
+        <v>2019</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>100</v>
       </c>
-      <c r="F4">
-        <v>100401</v>
-      </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
       <c r="H4">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4">
+        <v>100401004</v>
+      </c>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1">
+        <v>57</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>2019</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5">
+        <v>2019</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>100</v>
       </c>
-      <c r="F5">
-        <v>100401</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
       <c r="H5">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5">
+        <v>100401004</v>
+      </c>
+      <c r="K5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1">
+        <v>58</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
-        <v>2019</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6">
+        <v>2019</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>16.666666666666664</v>
       </c>
-      <c r="F6">
-        <v>100401</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
       <c r="H6">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6">
+        <v>100401004</v>
+      </c>
+      <c r="K6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1">
+        <v>58</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7">
+        <v>2019</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>83.333333333333343</v>
       </c>
-      <c r="F7">
-        <v>100401</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
       <c r="H7">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7">
+        <v>100401004</v>
+      </c>
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1">
+        <v>131</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
-        <v>2019</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8">
+        <v>2019</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>32.534246575342479</v>
       </c>
-      <c r="F8">
-        <v>100401</v>
-      </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
       <c r="H8">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8">
+        <v>100401004</v>
+      </c>
+      <c r="K8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1">
+        <v>131</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
-        <v>2019</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9">
+        <v>2019</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>67.465753424657521</v>
       </c>
-      <c r="F9">
-        <v>100401</v>
-      </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
       <c r="H9">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9">
+        <v>100401004</v>
+      </c>
+      <c r="K9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1">
+        <v>132</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10">
-        <v>2019</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10">
+        <v>2019</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>100</v>
       </c>
-      <c r="F10">
-        <v>100401</v>
-      </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
       <c r="H10">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10">
+        <v>100401004</v>
+      </c>
+      <c r="K10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1">
+        <v>134</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11">
-        <v>2019</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11">
+        <v>2019</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>100</v>
       </c>
-      <c r="F11">
-        <v>100401</v>
-      </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
       <c r="H11">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11">
+        <v>100401004</v>
+      </c>
+      <c r="K11" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1">
+        <v>135</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12">
-        <v>2019</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12">
+        <v>2019</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>32.80587102187453</v>
       </c>
-      <c r="F12">
-        <v>100401</v>
-      </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
       <c r="H12">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I12" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12">
+        <v>100401004</v>
+      </c>
+      <c r="K12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1">
+        <v>135</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13">
-        <v>2019</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13">
+        <v>2019</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>67.194128978125505</v>
       </c>
-      <c r="F13">
-        <v>100401</v>
-      </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
       <c r="H13">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I13" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13">
+        <v>100401004</v>
+      </c>
+      <c r="K13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1">
+        <v>136</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14">
-        <v>2019</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14">
+        <v>2019</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>100</v>
       </c>
-      <c r="F14">
-        <v>100401</v>
-      </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
       <c r="H14">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14">
+        <v>100401004</v>
+      </c>
+      <c r="K14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1">
+        <v>61</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15">
-        <v>2019</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15">
+        <v>2019</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>65.517241379310349</v>
       </c>
-      <c r="F15">
-        <v>100401</v>
-      </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
       <c r="H15">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I15" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15">
+        <v>100401004</v>
+      </c>
+      <c r="K15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1">
+        <v>61</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C16">
-        <v>2019</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16">
+        <v>2019</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>34.482758620689658</v>
       </c>
-      <c r="F16">
-        <v>100401</v>
-      </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
       <c r="H16">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16">
+        <v>100401004</v>
+      </c>
+      <c r="K16" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1">
+        <v>62</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17">
-        <v>2019</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17">
+        <v>2019</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>50</v>
       </c>
-      <c r="F17">
-        <v>100401</v>
-      </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
       <c r="H17">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I17" t="s">
-        <v>47</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17">
+        <v>100401004</v>
+      </c>
+      <c r="K17" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1">
+        <v>62</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18">
-        <v>2019</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18">
+        <v>2019</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>50</v>
       </c>
-      <c r="F18">
-        <v>100401</v>
-      </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
       <c r="H18">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I18" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18">
+        <v>100401004</v>
+      </c>
+      <c r="K18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1">
+        <v>63</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C19">
-        <v>2019</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19">
+        <v>2019</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>100</v>
       </c>
-      <c r="F19">
-        <v>100401</v>
-      </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
       <c r="H19">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I19" t="s">
-        <v>47</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19">
+        <v>100401004</v>
+      </c>
+      <c r="K19" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1">
+        <v>71</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C20">
-        <v>2019</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20">
+        <v>2019</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>69.433962264150964</v>
       </c>
-      <c r="F20">
-        <v>100401</v>
-      </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
       <c r="H20">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20">
+        <v>100401004</v>
+      </c>
+      <c r="K20" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1">
+        <v>71</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C21">
-        <v>2019</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21">
+        <v>2019</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>30.566037735849044</v>
       </c>
-      <c r="F21">
-        <v>100401</v>
-      </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
       <c r="H21">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I21" t="s">
-        <v>47</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21">
+        <v>100401004</v>
+      </c>
+      <c r="K21" t="s">
+        <v>47</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1">
+        <v>73</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C22">
-        <v>2019</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22">
+        <v>2019</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>100</v>
       </c>
-      <c r="F22">
-        <v>100401</v>
-      </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
       <c r="H22">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I22" t="s">
-        <v>47</v>
-      </c>
-      <c r="J22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22">
+        <v>100401004</v>
+      </c>
+      <c r="K22" t="s">
+        <v>47</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1">
+        <v>74</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C23">
-        <v>2019</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23">
+        <v>2019</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>100</v>
       </c>
-      <c r="F23">
-        <v>100401</v>
-      </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
       <c r="H23">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
-      </c>
-      <c r="J23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23">
+        <v>100401004</v>
+      </c>
+      <c r="K23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1">
+        <v>161</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C24">
-        <v>2019</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24">
+        <v>2019</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>79.993294638441398</v>
       </c>
-      <c r="F24">
-        <v>100401</v>
-      </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
       <c r="H24">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
-      </c>
-      <c r="J24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24">
+        <v>100401004</v>
+      </c>
+      <c r="K24" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>16</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1">
+        <v>161</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C25">
-        <v>2019</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25">
+        <v>2019</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>20.006705361558581</v>
       </c>
-      <c r="F25">
-        <v>100401</v>
-      </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
       <c r="H25">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I25" t="s">
-        <v>47</v>
-      </c>
-      <c r="J25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25">
+        <v>100401004</v>
+      </c>
+      <c r="K25" t="s">
+        <v>47</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1">
+        <v>162</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C26">
-        <v>2019</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26">
+        <v>2019</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>100</v>
       </c>
-      <c r="F26">
-        <v>100401</v>
-      </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
       <c r="H26">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
-      </c>
-      <c r="J26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26">
+        <v>100401004</v>
+      </c>
+      <c r="K26" t="s">
+        <v>47</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>16</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1">
+        <v>163</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C27">
-        <v>2019</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27">
+        <v>2019</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>44.566141063166825</v>
       </c>
-      <c r="F27">
-        <v>100401</v>
-      </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
       <c r="H27">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I27" t="s">
-        <v>47</v>
-      </c>
-      <c r="J27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27">
+        <v>100401004</v>
+      </c>
+      <c r="K27" t="s">
+        <v>47</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>16</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1">
+        <v>163</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C28">
-        <v>2019</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28">
+        <v>2019</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>55.433858936833182</v>
       </c>
-      <c r="F28">
-        <v>100401</v>
-      </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
       <c r="H28">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
-      </c>
-      <c r="J28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28">
+        <v>100401004</v>
+      </c>
+      <c r="K28" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>8</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1">
+        <v>81</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C29">
-        <v>2019</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29">
+        <v>2019</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>21.779193937306239</v>
       </c>
-      <c r="F29">
-        <v>100401</v>
-      </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
       <c r="H29">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I29" t="s">
-        <v>47</v>
-      </c>
-      <c r="J29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29">
+        <v>100401004</v>
+      </c>
+      <c r="K29" t="s">
+        <v>47</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1">
+        <v>81</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C30">
-        <v>2019</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30">
+        <v>2019</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>78.220806062693754</v>
       </c>
-      <c r="F30">
-        <v>100401</v>
-      </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
       <c r="H30">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I30" t="s">
-        <v>47</v>
-      </c>
-      <c r="J30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30">
+        <v>100401004</v>
+      </c>
+      <c r="K30" t="s">
+        <v>47</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1">
+        <v>82</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C31">
-        <v>2019</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31">
+        <v>2019</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>66.666666666666657</v>
       </c>
-      <c r="F31">
-        <v>100401</v>
-      </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
       <c r="H31">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I31" t="s">
-        <v>47</v>
-      </c>
-      <c r="J31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J31">
+        <v>100401004</v>
+      </c>
+      <c r="K31" t="s">
+        <v>47</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>8</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1">
+        <v>82</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C32">
-        <v>2019</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32">
+        <v>2019</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>27.664356009729801</v>
       </c>
-      <c r="F32">
-        <v>100401</v>
-      </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
       <c r="H32">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I32" t="s">
-        <v>47</v>
-      </c>
-      <c r="J32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J32">
+        <v>100401004</v>
+      </c>
+      <c r="K32" t="s">
+        <v>47</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>8</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1">
+        <v>82</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C33">
-        <v>2019</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33">
+        <v>2019</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E33">
+      <c r="G33">
         <v>5.6689773236035332</v>
       </c>
-      <c r="F33">
-        <v>100401</v>
-      </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
       <c r="H33">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I33" t="s">
-        <v>47</v>
-      </c>
-      <c r="J33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
+      </c>
+      <c r="J33">
+        <v>100401004</v>
+      </c>
+      <c r="K33" t="s">
+        <v>47</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C34">
-        <v>2019</v>
+      <c r="C34" s="1">
+        <v>83</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34">
+        <v>2019</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E34">
+      <c r="G34">
         <v>0.24061719150941027</v>
       </c>
-      <c r="F34">
-        <v>100401</v>
-      </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
       <c r="H34">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I34" t="s">
-        <v>47</v>
-      </c>
-      <c r="J34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
+      </c>
+      <c r="J34">
+        <v>100401004</v>
+      </c>
+      <c r="K34" t="s">
+        <v>47</v>
+      </c>
+      <c r="L34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C35">
-        <v>2019</v>
+      <c r="C35" s="1">
+        <v>83</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2019</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E35">
+      <c r="G35">
         <v>99.759382808490599</v>
       </c>
-      <c r="F35">
-        <v>100401</v>
-      </c>
-      <c r="G35" t="s">
-        <v>46</v>
-      </c>
       <c r="H35">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I35" t="s">
-        <v>47</v>
-      </c>
-      <c r="J35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J35">
+        <v>100401004</v>
+      </c>
+      <c r="K35" t="s">
+        <v>47</v>
+      </c>
+      <c r="L35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>9</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1">
+        <v>91</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C36">
-        <v>2019</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36">
+        <v>2019</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E36">
+      <c r="G36">
         <v>27.943197033830302</v>
       </c>
-      <c r="F36">
-        <v>100401</v>
-      </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
       <c r="H36">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I36" t="s">
-        <v>47</v>
-      </c>
-      <c r="J36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J36">
+        <v>100401004</v>
+      </c>
+      <c r="K36" t="s">
+        <v>47</v>
+      </c>
+      <c r="L36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>9</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1">
+        <v>91</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C37">
-        <v>2019</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37">
+        <v>2019</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E37">
+      <c r="G37">
         <v>71.074886449493718</v>
       </c>
-      <c r="F37">
-        <v>100401</v>
-      </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
       <c r="H37">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I37" t="s">
-        <v>47</v>
-      </c>
-      <c r="J37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J37">
+        <v>100401004</v>
+      </c>
+      <c r="K37" t="s">
+        <v>47</v>
+      </c>
+      <c r="L37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>9</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1">
+        <v>91</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C38">
-        <v>2019</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38">
+        <v>2019</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E38">
+      <c r="G38">
         <v>0.98191651667595159</v>
       </c>
-      <c r="F38">
-        <v>100401</v>
-      </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
       <c r="H38">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I38" t="s">
-        <v>47</v>
-      </c>
-      <c r="J38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J38">
+        <v>100401004</v>
+      </c>
+      <c r="K38" t="s">
+        <v>47</v>
+      </c>
+      <c r="L38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>9</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1">
+        <v>92</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C39">
-        <v>2019</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39">
+        <v>2019</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E39">
+      <c r="G39">
         <v>100</v>
       </c>
-      <c r="F39">
-        <v>100401</v>
-      </c>
-      <c r="G39" t="s">
-        <v>46</v>
-      </c>
       <c r="H39">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I39" t="s">
-        <v>47</v>
-      </c>
-      <c r="J39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J39">
+        <v>100401004</v>
+      </c>
+      <c r="K39" t="s">
+        <v>47</v>
+      </c>
+      <c r="L39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>14</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1">
+        <v>141</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C40">
-        <v>2019</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40">
+        <v>2019</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E40">
+      <c r="G40">
         <v>2.1358362816107404</v>
       </c>
-      <c r="F40">
-        <v>100401</v>
-      </c>
-      <c r="G40" t="s">
-        <v>46</v>
-      </c>
       <c r="H40">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I40" t="s">
-        <v>47</v>
-      </c>
-      <c r="J40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J40">
+        <v>100401004</v>
+      </c>
+      <c r="K40" t="s">
+        <v>47</v>
+      </c>
+      <c r="L40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>14</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1">
+        <v>141</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C41">
-        <v>2019</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41">
+        <v>2019</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E41">
+      <c r="G41">
         <v>86.029887178444042</v>
       </c>
-      <c r="F41">
-        <v>100401</v>
-      </c>
-      <c r="G41" t="s">
-        <v>46</v>
-      </c>
       <c r="H41">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I41" t="s">
-        <v>47</v>
-      </c>
-      <c r="J41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J41">
+        <v>100401004</v>
+      </c>
+      <c r="K41" t="s">
+        <v>47</v>
+      </c>
+      <c r="L41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>14</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1">
+        <v>141</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C42">
-        <v>2019</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42">
+        <v>2019</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E42">
+      <c r="G42">
         <v>11.834276539945229</v>
       </c>
-      <c r="F42">
-        <v>100401</v>
-      </c>
-      <c r="G42" t="s">
-        <v>46</v>
-      </c>
       <c r="H42">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I42" t="s">
-        <v>47</v>
-      </c>
-      <c r="J42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J42">
+        <v>100401004</v>
+      </c>
+      <c r="K42" t="s">
+        <v>47</v>
+      </c>
+      <c r="L42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>14</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1">
+        <v>141</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C43">
-        <v>2019</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43">
+        <v>2019</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E43">
+      <c r="G43">
         <v>4.8843852013057711</v>
       </c>
-      <c r="F43">
-        <v>100401</v>
-      </c>
-      <c r="G43" t="s">
-        <v>46</v>
-      </c>
       <c r="H43">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I43" t="s">
-        <v>47</v>
-      </c>
-      <c r="J43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J43">
+        <v>100401004</v>
+      </c>
+      <c r="K43" t="s">
+        <v>47</v>
+      </c>
+      <c r="L43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>14</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1">
+        <v>141</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C44">
-        <v>2019</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44">
+        <v>2019</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E44">
+      <c r="G44">
         <v>89.180087051142536</v>
       </c>
-      <c r="F44">
-        <v>100401</v>
-      </c>
-      <c r="G44" t="s">
-        <v>46</v>
-      </c>
       <c r="H44">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I44" t="s">
-        <v>47</v>
-      </c>
-      <c r="J44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J44">
+        <v>100401004</v>
+      </c>
+      <c r="K44" t="s">
+        <v>47</v>
+      </c>
+      <c r="L44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>14</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1">
+        <v>141</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C45">
-        <v>2019</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45">
+        <v>2019</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E45">
+      <c r="G45">
         <v>5.9355277475516939</v>
       </c>
-      <c r="F45">
-        <v>100401</v>
-      </c>
-      <c r="G45" t="s">
-        <v>46</v>
-      </c>
       <c r="H45">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I45" t="s">
-        <v>47</v>
-      </c>
-      <c r="J45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J45">
+        <v>100401004</v>
+      </c>
+      <c r="K45" t="s">
+        <v>47</v>
+      </c>
+      <c r="L45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>10</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1">
+        <v>101</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C46">
-        <v>2019</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46">
+        <v>2019</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E46">
+      <c r="G46">
         <v>39.094422930538926</v>
       </c>
-      <c r="F46">
-        <v>100401</v>
-      </c>
-      <c r="G46" t="s">
-        <v>46</v>
-      </c>
       <c r="H46">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I46" t="s">
-        <v>47</v>
-      </c>
-      <c r="J46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J46">
+        <v>100401004</v>
+      </c>
+      <c r="K46" t="s">
+        <v>47</v>
+      </c>
+      <c r="L46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>10</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1">
+        <v>101</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C47">
-        <v>2019</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47">
+        <v>2019</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E47">
+      <c r="G47">
         <v>52.161974238121211</v>
       </c>
-      <c r="F47">
-        <v>100401</v>
-      </c>
-      <c r="G47" t="s">
-        <v>46</v>
-      </c>
       <c r="H47">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I47" t="s">
-        <v>47</v>
-      </c>
-      <c r="J47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J47">
+        <v>100401004</v>
+      </c>
+      <c r="K47" t="s">
+        <v>47</v>
+      </c>
+      <c r="L47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>10</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1">
+        <v>101</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C48">
-        <v>2019</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48">
+        <v>2019</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E48">
+      <c r="G48">
         <v>8.7436028313398566</v>
       </c>
-      <c r="F48">
-        <v>100401</v>
-      </c>
-      <c r="G48" t="s">
-        <v>46</v>
-      </c>
       <c r="H48">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I48" t="s">
-        <v>47</v>
-      </c>
-      <c r="J48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J48">
+        <v>100401004</v>
+      </c>
+      <c r="K48" t="s">
+        <v>47</v>
+      </c>
+      <c r="L48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>10</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1">
+        <v>102</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C49">
-        <v>2019</v>
-      </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49">
+        <v>2019</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E49">
+      <c r="G49">
         <v>35.828268207099818</v>
       </c>
-      <c r="F49">
-        <v>100401</v>
-      </c>
-      <c r="G49" t="s">
-        <v>46</v>
-      </c>
       <c r="H49">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I49" t="s">
-        <v>47</v>
-      </c>
-      <c r="J49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J49">
+        <v>100401004</v>
+      </c>
+      <c r="K49" t="s">
+        <v>47</v>
+      </c>
+      <c r="L49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>10</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1">
+        <v>102</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C50">
-        <v>2019</v>
-      </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50">
+        <v>2019</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E50">
+      <c r="G50">
         <v>64.171731792900175</v>
       </c>
-      <c r="F50">
-        <v>100401</v>
-      </c>
-      <c r="G50" t="s">
-        <v>46</v>
-      </c>
       <c r="H50">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I50" t="s">
-        <v>47</v>
-      </c>
-      <c r="J50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J50">
+        <v>100401004</v>
+      </c>
+      <c r="K50" t="s">
+        <v>47</v>
+      </c>
+      <c r="L50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>10</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1">
+        <v>103</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C51">
-        <v>2019</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51">
+        <v>2019</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E51">
+      <c r="G51">
         <v>18.368097437556994</v>
       </c>
-      <c r="F51">
-        <v>100401</v>
-      </c>
-      <c r="G51" t="s">
-        <v>46</v>
-      </c>
       <c r="H51">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I51" t="s">
-        <v>47</v>
-      </c>
-      <c r="J51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J51">
+        <v>100401004</v>
+      </c>
+      <c r="K51" t="s">
+        <v>47</v>
+      </c>
+      <c r="L51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>10</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1">
+        <v>103</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C52">
-        <v>2019</v>
-      </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52">
+        <v>2019</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E52">
+      <c r="G52">
         <v>81.514224353505327</v>
       </c>
-      <c r="F52">
-        <v>100401</v>
-      </c>
-      <c r="G52" t="s">
-        <v>46</v>
-      </c>
       <c r="H52">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I52" t="s">
-        <v>47</v>
-      </c>
-      <c r="J52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J52">
+        <v>100401004</v>
+      </c>
+      <c r="K52" t="s">
+        <v>47</v>
+      </c>
+      <c r="L52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>10</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1">
+        <v>103</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C53">
-        <v>2019</v>
-      </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53">
+        <v>2019</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E53">
+      <c r="G53">
         <v>0.11767820893765993</v>
       </c>
-      <c r="F53">
-        <v>100401</v>
-      </c>
-      <c r="G53" t="s">
-        <v>46</v>
-      </c>
       <c r="H53">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I53" t="s">
-        <v>47</v>
-      </c>
-      <c r="J53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J53">
+        <v>100401004</v>
+      </c>
+      <c r="K53" t="s">
+        <v>47</v>
+      </c>
+      <c r="L53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>11</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1">
+        <v>111</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C54">
-        <v>2019</v>
-      </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54">
+        <v>2019</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E54">
+      <c r="G54">
         <v>100</v>
       </c>
-      <c r="F54">
-        <v>100401</v>
-      </c>
-      <c r="G54" t="s">
-        <v>46</v>
-      </c>
       <c r="H54">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I54" t="s">
-        <v>47</v>
-      </c>
-      <c r="J54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
+      </c>
+      <c r="J54">
+        <v>100401004</v>
+      </c>
+      <c r="K54" t="s">
+        <v>47</v>
+      </c>
+      <c r="L54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>11</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C55">
-        <v>2019</v>
+      <c r="C55" s="1">
+        <v>112</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55">
+        <v>2019</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E55">
+      <c r="G55">
         <v>100</v>
       </c>
-      <c r="F55">
-        <v>100401</v>
-      </c>
-      <c r="G55" t="s">
-        <v>46</v>
-      </c>
       <c r="H55">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I55" t="s">
-        <v>47</v>
-      </c>
-      <c r="J55" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
+      </c>
+      <c r="J55">
+        <v>100401004</v>
+      </c>
+      <c r="K55" t="s">
+        <v>47</v>
+      </c>
+      <c r="L55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>12</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C56">
-        <v>2019</v>
+      <c r="C56" s="1">
+        <v>121</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E56">
+        <v>2019</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E56">
+      <c r="G56">
         <v>100</v>
       </c>
-      <c r="F56">
-        <v>100401</v>
-      </c>
-      <c r="G56" t="s">
-        <v>46</v>
-      </c>
       <c r="H56">
-        <v>100401004</v>
+        <v>100401</v>
       </c>
       <c r="I56" t="s">
-        <v>47</v>
-      </c>
-      <c r="J56" s="1">
+        <v>46</v>
+      </c>
+      <c r="J56">
+        <v>100401004</v>
+      </c>
+      <c r="K56" t="s">
+        <v>47</v>
+      </c>
+      <c r="L56" s="1">
         <v>1</v>
       </c>
     </row>
